--- a/Data/Transitions/19361944Translation.xlsx
+++ b/Data/Transitions/19361944Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="698">
   <si>
     <t>id</t>
   </si>
@@ -100,7 +100,7 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -223,7 +223,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544}</t>
+    <t>{107.0: 1.0}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 1.0, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 1.0, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -313,7 +313,7 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -337,7 +337,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -349,19 +349,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.40698361611390244, 850.0: 0.001083483836576113}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5930163838860975, 850.0: 0.0015787457807283794}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.40681549296858815, 850.0: 0.001085203048932546}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5931845070314118, 850.0: 0.0015823528030181042}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -373,13 +373,13 @@
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9216604108666339}</t>
+    <t>{202.0: 0.9217296702120339}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -388,13 +388,13 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -403,7 +403,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -430,7 +430,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9990227217200097}</t>
+    <t>{249.0: 0.9990134418547293}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -541,7 +544,7 @@
     <t>{262.0: 0.9778834229020257}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
@@ -556,7 +559,7 @@
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 1.0, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 1.0, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,7 +658,7 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -718,16 +718,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 141.0: 0.0015172204521316948}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.9981033392723719}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{402.0: 0.9989634083134653, 141.0: 0.0015172204521316948}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.9980654238480479}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -736,7 +736,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -769,7 +769,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -784,7 +784,7 @@
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -841,13 +841,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.872347681529891}</t>
+    <t>{477.0: 0.872331559842872}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -880,13 +880,13 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -919,7 +919,7 @@
     <t>{502.0: 1.0}</t>
   </si>
   <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -955,7 +955,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9980719794344473, 752.0: 0.04920514761544285}</t>
+    <t>{580.0: 0.9981181109418407, 752.0: 0.04937333839726547}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -1069,7 +1069,7 @@
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1096,7 +1096,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1171,7 +1171,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.9963536918869644}</t>
+    <t>{634.0: 0.9964896884598509}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1225,7 +1225,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1249,10 +1249,10 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9819587628865979}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{695.0: 0.9820117474302497}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1351,7 +1351,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9507948523845572, 580.0: 0.0019280205655526992}</t>
+    <t>{752.0: 0.9506266616027346, 580.0: 0.0018818890581593333}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1366,7 +1366,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 1.0, 634.0: 0.0036463081130355514}</t>
+    <t>{757.0: 1.0, 634.0: 0.0035103115401491883}</t>
   </si>
   <si>
     <t>{758.0: 0.9980630879911455, 583.0: 0.0016375545851528383}</t>
@@ -1405,7 +1405,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1474,13 +1474,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 1.0, 836.0: 0.0014807502467917078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9985192497532083}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833}</t>
+    <t>{835.0: 1.0, 836.0: 0.0014044943820224719}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9985955056179775}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1501,7 +1501,7 @@
     <t>{843.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1519,19 +1519,19 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.07833958913336612, 680.0: 0.002957121734844751, 477.0: 0.05008694822181192}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.07827032978796614, 680.0: 0.002957121734844751, 477.0: 0.05008602257471036}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1540,7 +1540,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1585,16 +1585,16 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1609,7 +1609,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1639,7 +1639,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1648,7 +1648,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9965801756052919}</t>
+    <t>{922.0: 0.9965078673810798}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1669,10 +1669,10 @@
     <t>{928.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.002861685214626391}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9971383147853736, 929.0: 0.0017969956479011652}</t>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.002952271608988027}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.997047728391012, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1681,7 +1681,7 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.0009772782799902272}</t>
+    <t>{933.0: 1.0, 249.0: 0.000986558145270687}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
@@ -1693,7 +1693,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
+    <t>{942.0: 0.9907869481765835}</t>
   </si>
   <si>
     <t>{943.0: 1.0}</t>
@@ -1717,7 +1717,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1732,7 +1732,7 @@
     <t>{975.0: 1.0}</t>
   </si>
   <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1759,7 +1759,7 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.9957854406130269}</t>
+    <t>{992.0: 0.9957918898240244}</t>
   </si>
   <si>
     <t>{9.0: 0.9995276334435522, 208.0: 0.0004723665564478035}</t>
@@ -1780,16 +1780,13 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0}</t>
-  </si>
-  <si>
     <t>{140.0: 0.9858227848101265, 762.0: 0.014177215189873417}</t>
   </si>
   <si>
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1801,7 +1798,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051422, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{174.0: 1.0}</t>
@@ -1813,13 +1810,13 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.5993060590489727, 180.0: 0.40051465954568, 850.0: 0.00017928140534721575}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9995525727069351, 850.0: 0.00044742729306487686}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9971718123968889, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073768}</t>
+    <t>{179.0: 0.6003432513722297, 180.0: 0.39947793129057657, 850.0: 0.00017881733719363324}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.999552572706935, 850.0: 0.00044742729306487686}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9971607713237903, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944754}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1828,7 +1825,7 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.998085701663967, 688.0: 0.001914298336032985}</t>
@@ -1840,16 +1837,16 @@
     <t>{212.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8492496589358798, 503.0: 0.15075034106412005}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9975617827628103, 297.0: 0.00018045618356780216, 844.0: 0.002257761053621825}</t>
+    <t>{222.0: 0.8489405331510596, 503.0: 0.15105946684894053}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9975636241524386, 297.0: 0.0001786147939395593, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427764, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893284, 241.0: 0.7619738000310672}</t>
+    <t>{240.0: 0.23802619996893293, 241.0: 0.7619738000310672}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1864,10 +1861,10 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492866}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862117, 942.0: 0.0002797618337629159}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1879,16 +1876,16 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.013922582006117503}</t>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095124}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662857, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{303.0: 0.997686969930609, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879631, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -1906,10 +1903,10 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.9975391498881432, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
@@ -1918,7 +1915,7 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749248, 431.0: 0.00018684574941587378, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.999281049806884, 431.0: 0.00035663135253636115, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1936,13 +1933,13 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.02211302211302211}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9974491964968967, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.977914110429448, 503.0: 0.02208588957055215}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -1966,7 +1963,7 @@
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643216, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.988462903798367, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1981,7 +1978,7 @@
     <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774043}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225908, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225908, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.02514124293785311}</t>
@@ -2002,7 +1999,7 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972789, 208.0: 0.042517006802721094}</t>
@@ -2014,10 +2011,10 @@
     <t>{696.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.991709435452033, 580.0: 0.008290564547966837}</t>
-  </si>
-  <si>
-    <t>{757.0: 0.9970781592403215, 634.0: 0.0029218407596785976}</t>
+    <t>{752.0: 0.9916798732171154, 580.0: 0.00832012678288431}</t>
+  </si>
+  <si>
+    <t>{757.0: 0.996631578947368, 634.0: 0.0033684210526315796}</t>
   </si>
   <si>
     <t>{758.0: 0.9991689750692521, 583.0: 0.0008310249307479224}</t>
@@ -2026,10 +2023,10 @@
     <t>{762.0: 0.9509029955661296, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725945, 81.0: 0.0003498542274052478}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725946, 81.0: 0.0003498542274052478}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -2056,16 +2053,16 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.989914662529092, 922.0: 0.01008533747090768}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
   </si>
   <si>
     <t>{853.0: 0.9852427785488043, 202.0: 0.008472655641214591, 680.0: 8.597857132270854e-05, 477.0: 0.006198587238658523}</t>
   </si>
   <si>
-    <t>{854.0: 0.99734555984556, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940952, 695.0: 0.0072335400059049286}</t>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997019, 695.0: 0.007303622000298107}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
@@ -2080,19 +2077,19 @@
     <t>{896.0: 0.8730158730158731, 209.0: 0.1035923141186299, 400.0: 0.0075187969924812035, 432.0: 0.00835421888053467, 895.0: 0.0075187969924812035}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418465, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.994110429447853, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9992411040530667, 930.0: 0.0007588959469334983}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9932432432432433, 929.0: 0.006756756756756758}</t>
-  </si>
-  <si>
-    <t>{933.0: 0.9990142927550516, 249.0: 0.0009857072449482504}</t>
+    <t>{929.0: 0.9992200476637537, 930.0: 0.0007799523362461183}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9930302205281786, 929.0: 0.006969779471821399}</t>
+  </si>
+  <si>
+    <t>{933.0: 0.9990069513406155, 249.0: 0.0009930486593843098}</t>
   </si>
   <si>
     <t>{937.0: 0.9949109414758269, 85.0: 0.005089058524173028}</t>
@@ -3318,7 +3315,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>588</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3373,7 +3370,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3384,7 +3381,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3395,7 +3392,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3406,7 +3403,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3417,7 +3414,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3494,7 +3491,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3549,7 +3546,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3637,7 +3634,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3648,7 +3645,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3681,7 +3678,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3692,7 +3689,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3703,7 +3700,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3725,7 +3722,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3769,7 +3766,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3791,7 +3788,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3824,7 +3821,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3835,7 +3832,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3846,7 +3843,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3879,7 +3876,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3978,7 +3975,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4022,7 +4019,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4077,7 +4074,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4154,7 +4151,7 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4165,12 +4162,12 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4181,7 +4178,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4192,7 +4189,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4203,7 +4200,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4214,7 +4211,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4225,40 +4222,40 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>613</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4269,7 +4266,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4280,7 +4277,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4291,7 +4288,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4302,7 +4299,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4313,7 +4310,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4324,7 +4321,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4335,7 +4332,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4346,7 +4343,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4357,7 +4354,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4368,40 +4365,40 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>615</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>615</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4412,7 +4409,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4423,7 +4420,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4434,29 +4431,29 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>617</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>616</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4467,7 +4464,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4478,7 +4475,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4489,7 +4486,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4500,7 +4497,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4511,29 +4508,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>618</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>617</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4544,7 +4541,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4555,7 +4552,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4566,29 +4563,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>619</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>618</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4599,7 +4596,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4610,7 +4607,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4621,7 +4618,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4632,7 +4629,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4643,7 +4640,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4654,7 +4651,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4665,7 +4662,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4676,7 +4673,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4687,7 +4684,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4698,7 +4695,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4709,7 +4706,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4720,7 +4717,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4731,40 +4728,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>620</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>620</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4775,51 +4772,51 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>622</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>621</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>623</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>622</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4830,7 +4827,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4841,7 +4838,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4852,7 +4849,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4863,29 +4860,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>624</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>623</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4896,7 +4893,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4907,7 +4904,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4918,7 +4915,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4929,7 +4926,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4940,7 +4937,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4951,7 +4948,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4962,7 +4959,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4973,7 +4970,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -5001,7 +4998,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5012,7 +5009,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5034,7 +5031,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5045,7 +5042,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5056,7 +5053,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5067,7 +5064,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5100,7 +5097,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5221,7 +5218,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5276,7 +5273,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5309,7 +5306,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5320,7 +5317,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5331,7 +5328,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5441,7 +5438,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5463,7 +5460,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5485,7 +5482,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5507,7 +5504,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5628,7 +5625,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5650,7 +5647,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5771,7 +5768,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5815,7 +5812,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5848,7 +5845,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5903,7 +5900,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6024,7 +6021,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6057,7 +6054,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6068,7 +6065,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6167,7 +6164,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6178,7 +6175,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6200,7 +6197,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6255,7 +6252,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6321,7 +6318,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6420,7 +6417,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6431,7 +6428,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6475,7 +6472,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6695,7 +6692,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6750,7 +6747,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6783,7 +6780,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6816,7 +6813,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6893,7 +6890,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6904,7 +6901,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6981,7 +6978,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6992,7 +6989,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7047,7 +7044,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7355,7 +7352,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7410,7 +7407,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7421,7 +7418,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7465,7 +7462,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7553,7 +7550,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7663,7 +7660,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7685,7 +7682,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7740,7 +7737,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7784,7 +7781,7 @@
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7806,7 +7803,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7817,7 +7814,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7828,7 +7825,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7905,7 +7902,7 @@
         <v>495</v>
       </c>
       <c r="C494" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7971,7 +7968,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7993,7 +7990,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8004,7 +8001,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8015,7 +8012,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8048,7 +8045,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8136,7 +8133,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8213,7 +8210,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8235,7 +8232,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8246,7 +8243,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8301,7 +8298,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8411,7 +8408,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8444,7 +8441,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8521,7 +8518,7 @@
         <v>551</v>
       </c>
       <c r="C550" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -8532,7 +8529,7 @@
         <v>552</v>
       </c>
       <c r="C551" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -8565,7 +8562,7 @@
         <v>555</v>
       </c>
       <c r="C554" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -8609,7 +8606,7 @@
         <v>559</v>
       </c>
       <c r="C558" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -8664,7 +8661,7 @@
         <v>564</v>
       </c>
       <c r="C563" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -8697,7 +8694,7 @@
         <v>567</v>
       </c>
       <c r="C566" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -8752,7 +8749,7 @@
         <v>572</v>
       </c>
       <c r="C571" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -8785,7 +8782,7 @@
         <v>575</v>
       </c>
       <c r="C574" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -8851,7 +8848,7 @@
         <v>581</v>
       </c>
       <c r="C580" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
